--- a/data/inter_iit_data/bangalore_pickups.xlsx
+++ b/data/inter_iit_data/bangalore_pickups.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\gshp_optimization\data\inter_iit_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B240B65-5560-412C-81AA-AB62B68944B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>1260, SY 35/4, SJR Tower's, 7th Phase, 24th Main Puttanhalli, JP Nagar, Bangalore</t>
   </si>
@@ -203,28 +212,27 @@
   </si>
   <si>
     <t>SKU_148</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>AWB</t>
+  </si>
+  <si>
+    <t>product_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -313,32 +321,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,24 +341,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -572,7 +627,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -591,7 +646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -621,7 +676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -647,7 +702,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -673,7 +728,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -699,7 +754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -725,7 +780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -751,7 +806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -803,7 +858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,7 +884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,9 +897,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -859,7 +920,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -867,7 +928,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -886,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,9 +1194,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1149,7 +1216,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1168,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1276,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,7 +1447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1406,7 +1473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1419,405 +1486,428 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2">
+    <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C2" s="4">
         <v>40834506264</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>81893229584</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="2">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>59723146139</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>13550952423</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="5">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>37256804721</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>98320322280</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="2">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <v>64727690316</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>33739970099</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="4">
         <v>70719650178</v>
       </c>
-      <c r="D9" t="s" s="5">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>33192159992</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="4">
         <v>87348538617</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="2">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>90135330114</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="2">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>98618659069</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>37317986613</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="2">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>83760820881</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>19222028019</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="2">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <v>35278429230</v>
       </c>
-      <c r="D17" t="s" s="5">
+      <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="2">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>85641566876</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E18" t="s" s="5">
+      <c r="E19" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>44350146864</v>
       </c>
-      <c r="D19" t="s" s="5">
+      <c r="D20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s" s="5">
+      <c r="E20" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="2">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>35688482050</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E20" t="s" s="5">
+      <c r="E21" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="2">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>75730852176</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s" s="5">
+      <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="2">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>65256560203</v>
       </c>
-      <c r="D22" t="s" s="5">
+      <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s" s="5">
+      <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811" footer="0.511811"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.51181100000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/inter_iit_data/bangalore_pickups.xlsx
+++ b/data/inter_iit_data/bangalore_pickups.xlsx
@@ -1279,7 +1279,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Samay Raina</t>
+          <t>Samay Raina2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">

--- a/data/inter_iit_data/bangalore_pickups.xlsx
+++ b/data/inter_iit_data/bangalore_pickups.xlsx
@@ -1279,11 +1279,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JP Nagar, xyz</t>
+          <t>3rd Cross, 2nd Stage, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">

--- a/data/inter_iit_data/bangalore_pickups.xlsx
+++ b/data/inter_iit_data/bangalore_pickups.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\gshp_optimization\data\inter_iit_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402BA81-6072-4625-A1F6-1DF5CEC8E37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>1260, SY 35/4, SJR Tower's, 7th Phase, 24th Main Puttanhalli, JP Nagar, Bangalore</t>
   </si>
@@ -203,28 +212,27 @@
   </si>
   <si>
     <t>SKU_148</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>AWB</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>product_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -313,32 +321,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,24 +341,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -572,7 +627,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -591,7 +646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -621,7 +676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -647,7 +702,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -673,7 +728,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -699,7 +754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -725,7 +780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -751,7 +806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -803,7 +858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,7 +884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,9 +897,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -859,7 +920,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -867,7 +928,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -886,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,9 +1194,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1149,7 +1216,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1168,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1276,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,7 +1447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1406,7 +1473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1419,405 +1486,428 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2">
+    <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C2" s="4">
         <v>40834506264</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>81893229584</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="2">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>59723146139</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>13550952423</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="5">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>37256804721</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>98320322280</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="2">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <v>64727690316</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>33739970099</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="4">
         <v>70719650178</v>
       </c>
-      <c r="D9" t="s" s="5">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>33192159992</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="4">
         <v>87348538617</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="2">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>90135330114</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="2">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>98618659069</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>37317986613</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="2">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>83760820881</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>19222028019</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="2">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <v>35278429230</v>
       </c>
-      <c r="D17" t="s" s="5">
+      <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="2">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>85641566876</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E18" t="s" s="5">
+      <c r="E19" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>44350146864</v>
       </c>
-      <c r="D19" t="s" s="5">
+      <c r="D20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s" s="5">
+      <c r="E20" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="2">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>35688482050</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E20" t="s" s="5">
+      <c r="E21" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="2">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>75730852176</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s" s="5">
+      <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="2">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>65256560203</v>
       </c>
-      <c r="D22" t="s" s="5">
+      <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s" s="5">
+      <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811" footer="0.511811"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.51181100000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/inter_iit_data/bangalore_pickups.xlsx
+++ b/data/inter_iit_data/bangalore_pickups.xlsx
@@ -487,26 +487,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2380</v>
+        <v>5207</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3rd Cross, 2nd Stage, Domlur, Bangalore</t>
+          <t>1260, SY 35/4, SJR Tower's, 7th Phase, 24th Main Puttanhalli, JP Nagar, Bangalore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>40834506264</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Samay Raina2</t>
+          <t>Leah West</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SKU_new0</t>
+          <t>SKU_8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -523,26 +523,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2143</v>
+        <v>5208</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1260, SY 35/4, SJR Tower's, 7th Phase, 24th Main Puttanhalli, JP Nagar, Bangalore</t>
+          <t>82/3, Third Floor, Khata 866, Panathur Main Road, Bhoganahalli Cross, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>40834506264</t>
+          <t>81893229584</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Leah West</t>
+          <t>Ruben Thompson</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SKU_8</t>
+          <t>SKU_90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -559,26 +559,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2144</v>
+        <v>5209</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>82/3, Third Floor, Khata 866, Panathur Main Road, Bhoganahalli Cross, Marathahalli, Bangalore</t>
+          <t>Embassy Tech Square Food Court, Cessna Tech Park, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>81893229584</t>
+          <t>59723146139</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ruben Thompson</t>
+          <t>Melva Little</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SKU_90</t>
+          <t>SKU_86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -595,26 +595,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2145</v>
+        <v>5210</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embassy Tech Square Food Court, Cessna Tech Park, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>44, 3rd Cross, Marenahalli, 2nd Phase, JP Nagar, Bangalore</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>59723146139</t>
+          <t>13550952423</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Melva Little</t>
+          <t>Mary Kirk</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SKU_86</t>
+          <t>SKU_129</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -631,26 +631,26 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2146</v>
+        <v>5211</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>44, 3rd Cross, Marenahalli, 2nd Phase, JP Nagar, Bangalore</t>
+          <t>2617, 27th Main, Sector 1, Opposite CPWD Complex, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13550952423</t>
+          <t>37256804721</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mary Kirk</t>
+          <t>Johnny Blake</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SKU_129</t>
+          <t>SKU_29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -667,26 +667,26 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2147</v>
+        <v>5212</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2617, 27th Main, Sector 1, Opposite CPWD Complex, HSR, Bangalore</t>
+          <t>493, 13th Cross, 2nd Stage, Behind BDA Complex, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>37256804721</t>
+          <t>98320322280</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Johnny Blake</t>
+          <t>Kathryn Zuhlke</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SKU_29</t>
+          <t>SKU_103</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -703,26 +703,26 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2148</v>
+        <v>5213</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>493, 13th Cross, 2nd Stage, Behind BDA Complex, Indiranagar, Bangalore</t>
+          <t>2334, Aarush Arcade, 17th Cross, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>98320322280</t>
+          <t>64727690316</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kathryn Zuhlke</t>
+          <t>Charles Shelley</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SKU_103</t>
+          <t>SKU_79</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -739,26 +739,26 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2149</v>
+        <v>5214</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2334, Aarush Arcade, 17th Cross, 1st Sector, HSR, Bangalore</t>
+          <t>1659, 27th Main Road, Sector 2, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>64727690316</t>
+          <t>33739970099</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Charles Shelley</t>
+          <t>Monica Troxler</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SKU_79</t>
+          <t>SKU_39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -775,26 +775,26 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2150</v>
+        <v>5215</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1659, 27th Main Road, Sector 2, HSR Layout, HSR, Bangalore</t>
+          <t>31st Main, Near NIFT, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>33739970099</t>
+          <t>70719650178</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Monica Troxler</t>
+          <t>Barbara Baumberger</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SKU_39</t>
+          <t>SKU_118</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -811,26 +811,26 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2151</v>
+        <v>5216</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31st Main, Near NIFT, Sector 1, HSR, Bangalore</t>
+          <t>19/4 &amp; 27, Ground Floor, Indiqube Alpha, Panathur Junction, Kadubisanahalli, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>70719650178</t>
+          <t>33192159992</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Barbara Baumberger</t>
+          <t>Judy Epson</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SKU_118</t>
+          <t>SKU_43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -847,26 +847,26 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2152</v>
+        <v>5217</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19/4 &amp; 27, Ground Floor, Indiqube Alpha, Panathur Junction, Kadubisanahalli, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>322, Shalini Complex, CMH Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>33192159992</t>
+          <t>87348538617</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Judy Epson</t>
+          <t>Albert Rosol</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SKU_43</t>
+          <t>SKU_28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -883,26 +883,26 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2153</v>
+        <v>5218</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>322, Shalini Complex, CMH Road, Indiranagar, Bangalore</t>
+          <t>Ground Floor, Figure and Fitness Gym, ESI Hospital Road, Double Road, Stage 3, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>87348538617</t>
+          <t>90135330114</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Albert Rosol</t>
+          <t>Raymond May</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SKU_28</t>
+          <t>SKU_131</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -919,26 +919,26 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2154</v>
+        <v>5219</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ground Floor, Figure and Fitness Gym, ESI Hospital Road, Double Road, Stage 3, Indiranagar, Bangalore</t>
+          <t>844, Binnamangala, 1st Stage, Near B.D.A Complex, Double Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>90135330114</t>
+          <t>98618659069</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Raymond May</t>
+          <t>Robert Davis</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SKU_131</t>
+          <t>SKU_43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -955,26 +955,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2155</v>
+        <v>5220</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>844, Binnamangala, 1st Stage, Near B.D.A Complex, Double Road, Indiranagar, Bangalore</t>
+          <t>3rd Cross, 2nd Stage, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>98618659069</t>
+          <t>37317986613</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Robert Davis</t>
+          <t>Karen Turner</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SKU_43</t>
+          <t>SKU_106</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -991,26 +991,26 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2156</v>
+        <v>5221</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3rd Cross, 2nd Stage, Domlur, Bangalore</t>
+          <t>Shop 217, 2nd Main Road, Kadubeesanahalli Croma, Back Side Road, Near Kumbeshwara Temple Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>37317986613</t>
+          <t>83760820881</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Karen Turner</t>
+          <t>Morris Delacruz</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SKU_106</t>
+          <t>SKU_33</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1027,26 +1027,26 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2157</v>
+        <v>5222</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Shop 217, 2nd Main Road, Kadubeesanahalli Croma, Back Side Road, Near Kumbeshwara Temple Marathahalli, Bangalore</t>
+          <t>68, Appareddy Palya, Near ESI Hospital, HAL 2nd Stage, Double Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>83760820881</t>
+          <t>19222028019</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Morris Delacruz</t>
+          <t>Russell Repp</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SKU_33</t>
+          <t>SKU_47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1063,26 +1063,26 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2158</v>
+        <v>5223</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>68, Appareddy Palya, Near ESI Hospital, HAL 2nd Stage, Double Road, Indiranagar, Bangalore</t>
+          <t>89/1, Monnekollal Village, Varthur Hobli, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19222028019</t>
+          <t>35278429230</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Russell Repp</t>
+          <t>Anna Parsons</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SKU_47</t>
+          <t>SKU_11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1099,26 +1099,26 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2159</v>
+        <v>5224</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>89/1, Monnekollal Village, Varthur Hobli, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>Outer Ring Road, Opposite to JP Morgan, Kodbisanhalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>35278429230</t>
+          <t>85641566876</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Anna Parsons</t>
+          <t>Antwan Howell</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SKU_11</t>
+          <t>SKU_65</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1135,26 +1135,26 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2160</v>
+        <v>5225</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Outer Ring Road, Opposite to JP Morgan, Kodbisanhalli, Marathahalli, Bangalore</t>
+          <t>2318, Sector 1, Near NIFT College, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>85641566876</t>
+          <t>44350146864</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Antwan Howell</t>
+          <t>Ruth Donaldson</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SKU_65</t>
+          <t>SKU_80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1171,26 +1171,26 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2161</v>
+        <v>5226</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2318, Sector 1, Near NIFT College, HSR, Bangalore</t>
+          <t>697, 12th Cross, 27th Main, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>44350146864</t>
+          <t>35688482050</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ruth Donaldson</t>
+          <t>Cecilia Henderson</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SKU_80</t>
+          <t>SKU_88</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1207,26 +1207,26 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2162</v>
+        <v>5227</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>697, 12th Cross, 27th Main, 1st Sector, HSR, Bangalore</t>
+          <t>1260 SY 35/4 SJR Tower's, 24th Main Puttanhalli, JP Nagar 7th Phase, Bangalore</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>35688482050</t>
+          <t>75730852176</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cecilia Henderson</t>
+          <t>Jonathan Nelson</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SKU_88</t>
+          <t>SKU_103</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1243,26 +1243,26 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2163</v>
+        <v>5228</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1260 SY 35/4 SJR Tower's, 24th Main Puttanhalli, JP Nagar 7th Phase, Bangalore</t>
+          <t>915, 24th Main Road, 2nd Phase, Mayura Circle, JP Nagar, Bangalore</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>75730852176</t>
+          <t>65256560203</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jonathan Nelson</t>
+          <t>David Finn</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SKU_103</t>
+          <t>SKU_148</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1279,26 +1279,26 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2164</v>
+        <v>5444</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>915, 24th Main Road, 2nd Phase, Mayura Circle, JP Nagar, Bangalore</t>
+          <t>3rd Cross, 2nd Stage, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>65256560203</t>
+          <t>123456789</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>David Finn</t>
+          <t>Samay Raina</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SKU_148</t>
+          <t>SKU_new0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
